--- a/chapter7/Chapter7-HW-withAnswers.xlsx
+++ b/chapter7/Chapter7-HW-withAnswers.xlsx
@@ -93,9 +93,6 @@
     <t>k</t>
   </si>
   <si>
-    <t>num</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>?, final result is in AE304:AM309</t>
+  </si>
+  <si>
+    <t>num (Angiographic Disease Status)</t>
   </si>
 </sst>
 </file>
@@ -264,6 +264,291 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26660475" y="762000"/>
+          <a:ext cx="5664200" cy="6664325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The data is downloaded from http://archive.ics.uci.edu/ml/datasets/Heart+Disease.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1. #3 (age)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2. #4 (sex)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3. #9 (cp)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4. #10 (trestbps)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5. #12 (chol)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>6. #16 (fbs) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>7. #19 (restecg)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>8. #32 (thalach) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>9. #38 (exang) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10. #40 (oldpeak) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>11. #41 (slope) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>12. #44 (ca)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>13. #51 (thal)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>14. #58 (num) (the predicted attribute). It is in fact diagnosis of heart disease (angiographic disease status)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>You</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>r job is to use the dataset inside B5:O302 to predict the target value (Num) for the record in row 305 by using KNN method.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Note, please normalize the data and apply "weighting" into the computation. Thanks.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Data Contributed by:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. Hungarian Institute of Cardiology. Budapest: Andras Janosi, M.D.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. University Hospital, Zurich, Switzerland: William Steinbrunn, M.D.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. University Hospital, Basel, Switzerland: Matthias Pfisterer, M.D.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. V.A. Medical Center, Long Beach and Cleveland Clinic Foundation:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	  Robert Detrano, M.D., Ph.D.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Reference:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Janosi,Andras, Steinbrunn,William, Pfisterer,Matthias, and Detrano,Robert. (1988). Heart Disease. UCI Machine Learning Repository. https://doi.org/10.24432/C52P4X.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,7 +816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="AP299" sqref="AP299"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32894,7 +33181,7 @@
       <c r="AB304" s="13"/>
       <c r="AC304" s="13"/>
       <c r="AE304" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF304" s="14"/>
       <c r="AG304" s="14"/>
@@ -32946,7 +33233,7 @@
         <v>5</v>
       </c>
       <c r="O305" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q305">
         <f>100/(B$1-B$2)*(B305-B$2)</f>
@@ -33004,10 +33291,10 @@
         <v>23</v>
       </c>
       <c r="AF305" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG305" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="AG305" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="AH305" s="8">
         <v>0</v>
@@ -33025,7 +33312,7 @@
         <v>4</v>
       </c>
       <c r="AM305" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="306" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -33193,5 +33480,6 @@
     <mergeCell ref="AE304:AM304"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>